--- a/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2024_12_12 16_38_38.xlsx
+++ b/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2024_12_12 16_38_38.xlsx
@@ -4294,13 +4294,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847CAC09-16A0-432C-8EF0-149D97A4E71E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E9A8F0-BE3C-43E3-A6B3-C8E82EEB0C84}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C06E20-2FC4-4A2E-BB0C-58C23490DF9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702E40AA-FD21-4DF2-8272-FF04FB7702FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{376D44C2-21BF-40F0-962D-1D5F2C84B176}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEA6AD3-CEEA-4BDA-BE51-A4ED21BCBCE1}"/>
 </file>
--- a/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2024_12_12 16_38_38.xlsx
+++ b/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2024_12_12 16_38_38.xlsx
@@ -4294,13 +4294,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E9A8F0-BE3C-43E3-A6B3-C8E82EEB0C84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38672828-44B2-4361-B979-0ED619B70DD1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702E40AA-FD21-4DF2-8272-FF04FB7702FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F16C58-EAC7-42E1-B20B-C1518F358E26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEA6AD3-CEEA-4BDA-BE51-A4ED21BCBCE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2C8FBDA-F54B-4004-B176-B1FD25AB0AE7}"/>
 </file>